--- a/biology/Médecine/2C-C/2C-C.xlsx
+++ b/biology/Médecine/2C-C/2C-C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le 2C-C est un hallucinogène psychédélique, synthétisé pour la première fois par Alexander Shulgin.
@@ -513,7 +525,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa structure est proche de celle de la mescaline.
 </t>
@@ -544,10 +558,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 2C-C n'étant pas un produit très répandu, peu de recherches ont été effectuées. On ne connaît que peu sa toxicité et sa pharmacologie.
-La durée d'action des effets psychoactifs durent entre 4  et   8 heures et sont simultanément sédatifs et hallucinogènes[2].
+La durée d'action des effets psychoactifs durent entre 4  et   8 heures et sont simultanément sédatifs et hallucinogènes.
 </t>
         </is>
       </c>
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Effets recherchés
-illusions sensorielles ;
+          <t>Effets recherchés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">illusions sensorielles ;
 sensations d'énergie, de bien-être ;
 sensation d'empathie ;
 exacerbation des sens (notamment tactile et sensibilité à la musique) ;
@@ -613,7 +634,9 @@
           <t>Mode de consommation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son livre PIHKAL (Phenethylamines I HaveKnown and Loved, Les Phényléthylamines que j'ai connues et aimées), Shulgin donne un dosage entre 20  et   40 mg. 
 Le 2C-C est pris par voie orale, mais peut également être vaporisé sous forme d'inhalateur. 
@@ -645,7 +668,9 @@
           <t>Législation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 2C-C est considéré comme légal dans la plupart des pays, illégal dans les autres où il est assimilé à du 2C-B.
 </t>
